--- a/outputs_decision/outputs/tables_by_country/aggregated_Permanent_water_permanent_area.xlsx
+++ b/outputs_decision/outputs/tables_by_country/aggregated_Permanent_water_permanent_area.xlsx
@@ -465,19 +465,19 @@
         <v>2000</v>
       </c>
       <c r="B2" t="n">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E2" t="n">
-        <v>2.396373056994818</v>
+        <v>2.202160413296457</v>
       </c>
       <c r="F2" t="n">
-        <v>1.079447322970639</v>
+        <v>1.095861817043261</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3454231433506045</v>
+        <v>0.2922298178782028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2302820955670697</v>
+        <v>0.1722068569639409</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2010</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4533678756476683</v>
+        <v>0.391379220372593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.302245250431779</v>
+        <v>0.2922298178782028</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>351</v>
+        <v>456</v>
       </c>
       <c r="C5" t="n">
-        <v>730</v>
+        <v>951</v>
       </c>
       <c r="D5" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E5" t="n">
-        <v>2.525906735751295</v>
+        <v>2.379585659865366</v>
       </c>
       <c r="F5" t="n">
-        <v>5.253310305123777</v>
+        <v>4.962688514324479</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>364</v>
+        <v>471</v>
       </c>
       <c r="C6" t="n">
-        <v>1102</v>
+        <v>1389</v>
       </c>
       <c r="D6" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E6" t="n">
-        <v>2.619458837075418</v>
+        <v>2.457861503939884</v>
       </c>
       <c r="F6" t="n">
-        <v>7.930339666090962</v>
+        <v>7.248343161300423</v>
       </c>
     </row>
   </sheetData>
